--- a/Lab9/Usabiliti.xlsx
+++ b/Lab9/Usabiliti.xlsx
@@ -192,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -200,26 +200,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +666,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,305 +678,329 @@
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4" t="s">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
@@ -823,31 +1009,8 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>